--- a/attendence_pras.xlsx
+++ b/attendence_pras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai19\OneDrive\Desktop\ASE-2-CMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99165837-DEE6-4686-863E-B8ED2C82BA8E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B25E0EBD-22D7-43AD-9561-4B7C8C841BAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E011095F-C9B7-4E54-B7CB-62C1F1DE19D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8325" xr2:uid="{E011095F-C9B7-4E54-B7CB-62C1F1DE19D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="2">
   <si>
     <t>P</t>
   </si>
@@ -385,31 +385,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27526F-52BF-4224-9D11-07682C2BD9B9}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>17</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -418,12 +418,12 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -432,12 +432,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -446,12 +446,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -460,12 +460,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -474,12 +474,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -488,12 +488,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -502,12 +502,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -516,12 +516,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -530,12 +530,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -544,12 +544,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -558,12 +558,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -572,12 +572,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -586,12 +586,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -600,12 +600,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -614,12 +614,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -628,12 +628,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -642,12 +642,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -656,12 +656,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -670,12 +670,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -684,12 +684,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -698,12 +698,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -726,12 +726,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -740,12 +740,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -754,12 +754,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -768,12 +768,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -782,12 +782,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -796,12 +796,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -810,12 +810,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -824,12 +824,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -838,12 +838,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -852,12 +852,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -866,12 +866,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -880,12 +880,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -894,12 +894,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -908,12 +908,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -922,12 +922,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -936,12 +936,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -950,12 +950,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -964,12 +964,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -978,12 +978,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -992,12 +992,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1006,12 +1006,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1020,12 +1020,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1034,12 +1034,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1048,12 +1048,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1076,12 +1076,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -1090,12 +1090,12 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1104,34 +1104,399 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
